--- a/Code/Data/Auto/gauss_speedXtime_2/gauss_speedXtime_2.xlsx
+++ b/Code/Data/Auto/gauss_speedXtime_2/gauss_speedXtime_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toon\PycharmProjects\Thesis\Code\Data\Auto\gauss_speedXtime_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kuleuven-my.sharepoint.com/personal/toon_vandegenachte_student_kuleuven_be/Documents/2de master/Thesis/Thesis/Code/Data/Auto/gauss_speedXtime_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8274EC5E-D164-4F7C-BC1F-721D22B1A04B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{8274EC5E-D164-4F7C-BC1F-721D22B1A04B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AA3A8AD-DD20-4D49-9E4B-5B23EA5B2687}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -669,12 +669,15 @@
   <dimension ref="A1:Q73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:XFD45"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="64.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -727,7 +730,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -780,7 +783,7 @@
         <v>2.4136121547775198</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -833,7 +836,7 @@
         <v>2.4142577074915099</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -886,7 +889,7 @@
         <v>1.3074732367831801</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -939,7 +942,7 @@
         <v>3.81422106204373</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -992,7 +995,7 @@
         <v>3.8142210621285999</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1045,7 +1048,7 @@
         <v>3.8142210621284298</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1098,7 +1101,7 @@
         <v>1.3075918978401799</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1151,7 +1154,7 @@
         <v>3.6809457716762402</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1204,7 +1207,7 @@
         <v>3.6816083485928699</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -1257,7 +1260,7 @@
         <v>3.8072729621702099</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -1310,7 +1313,7 @@
         <v>3.8072729622131298</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -1363,7 +1366,7 @@
         <v>3.8072729622125601</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1416,7 +1419,7 @@
         <v>305.97271690253399</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -1469,7 +1472,7 @@
         <v>305.96888864390399</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1522,7 +1525,7 @@
         <v>305.96882735845099</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -1575,7 +1578,7 @@
         <v>306.00732630680301</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -1628,7 +1631,7 @@
         <v>305.98116282666098</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -1681,7 +1684,7 @@
         <v>305.98073401464899</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -1734,7 +1737,7 @@
         <v>305.97863628411301</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1787,7 +1790,7 @@
         <v>305.97101062306098</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -1840,7 +1843,7 @@
         <v>305.970887995748</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -1893,7 +1896,7 @@
         <v>305.98740579968802</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -1946,7 +1949,7 @@
         <v>305.97414092829598</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -1999,7 +2002,7 @@
         <v>305.97392641391002</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>44</v>
       </c>
@@ -2052,7 +2055,7 @@
         <v>353.61840948531398</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -2105,7 +2108,7 @@
         <v>354.83868163282102</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -2158,7 +2161,7 @@
         <v>353.618387862573</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -2211,7 +2214,7 @@
         <v>384.69611695520598</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -2264,7 +2267,7 @@
         <v>384.70590886447098</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -2317,7 +2320,7 @@
         <v>384.71149055806097</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -2370,7 +2373,7 @@
         <v>354.84013996924</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -2423,7 +2426,7 @@
         <v>353.61979865269501</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>52</v>
       </c>
@@ -2476,7 +2479,7 @@
         <v>354.840092418398</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>53</v>
       </c>
@@ -2529,7 +2532,7 @@
         <v>353.62001378706799</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -2582,7 +2585,7 @@
         <v>354.84023188593301</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>55</v>
       </c>
@@ -2635,7 +2638,7 @@
         <v>353.61993811189899</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>56</v>
       </c>
@@ -2688,7 +2691,7 @@
         <v>1297.2845658915101</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>57</v>
       </c>
@@ -2741,7 +2744,7 @@
         <v>1296.3005249596199</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>58</v>
       </c>
@@ -2794,7 +2797,7 @@
         <v>1295.91733345135</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>59</v>
       </c>
@@ -2847,7 +2850,7 @@
         <v>1382.4463049992801</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>60</v>
       </c>
@@ -2900,7 +2903,7 @@
         <v>1375.6760929003501</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>61</v>
       </c>
@@ -2953,7 +2956,7 @@
         <v>1371.5098167147301</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>62</v>
       </c>
@@ -3006,7 +3009,7 @@
         <v>1332.4900971381401</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>63</v>
       </c>
@@ -3059,7 +3062,7 @@
         <v>1326.9566937622201</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>64</v>
       </c>
@@ -3112,7 +3115,7 @@
         <v>1327.0402046224999</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>65</v>
       </c>
@@ -3165,7 +3168,7 @@
         <v>1352.0636108772401</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>66</v>
       </c>
@@ -3218,7 +3221,7 @@
         <v>1350.77452624588</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>67</v>
       </c>
@@ -3271,7 +3274,7 @@
         <v>1348.4243236074301</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>68</v>
       </c>
@@ -3324,7 +3327,7 @@
         <v>1683.3720617164199</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>69</v>
       </c>
@@ -3377,7 +3380,7 @@
         <v>1676.0779755751601</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>70</v>
       </c>
@@ -3430,7 +3433,7 @@
         <v>1677.55862383111</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>71</v>
       </c>
@@ -3483,7 +3486,7 @@
         <v>1692.85077591352</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>72</v>
       </c>
@@ -3536,7 +3539,7 @@
         <v>1687.5600098822099</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>73</v>
       </c>
@@ -3589,7 +3592,7 @@
         <v>1681.9099904243801</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>74</v>
       </c>
@@ -3642,7 +3645,7 @@
         <v>1680.25975903928</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>75</v>
       </c>
@@ -3695,7 +3698,7 @@
         <v>1683.0494961439599</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>76</v>
       </c>
@@ -3748,7 +3751,7 @@
         <v>1677.2293762111999</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>77</v>
       </c>
@@ -3801,7 +3804,7 @@
         <v>1684.5071884039601</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>78</v>
       </c>
@@ -3854,7 +3857,7 @@
         <v>1681.97359665263</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>79</v>
       </c>
@@ -3907,7 +3910,7 @@
         <v>1679.5548990444299</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>80</v>
       </c>
@@ -3960,7 +3963,7 @@
         <v>1748.1098719301699</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>81</v>
       </c>
@@ -4013,7 +4016,7 @@
         <v>1744.41609609939</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>82</v>
       </c>
@@ -4066,7 +4069,7 @@
         <v>1743.8335726790999</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>83</v>
       </c>
@@ -4119,7 +4122,7 @@
         <v>1753.6748695587</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>84</v>
       </c>
@@ -4172,7 +4175,7 @@
         <v>1746.16314210576</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>85</v>
       </c>
@@ -4225,7 +4228,7 @@
         <v>1745.2777839779701</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>86</v>
       </c>
@@ -4278,7 +4281,7 @@
         <v>1749.61404015074</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>87</v>
       </c>
@@ -4331,7 +4334,7 @@
         <v>1744.5299441751499</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>88</v>
       </c>
@@ -4384,7 +4387,7 @@
         <v>1743.81159678937</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>89</v>
       </c>
@@ -4437,7 +4440,7 @@
         <v>1752.1813375470999</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>90</v>
       </c>
@@ -4490,7 +4493,7 @@
         <v>1745.89376042292</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>91</v>
       </c>
